--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="BabyDragons" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>[sku]</t>
   </si>
@@ -53,9 +53,6 @@
     <t>[tidDesc]</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
     <t>[category]</t>
   </si>
   <si>
@@ -87,12 +84,6 @@
   </si>
   <si>
     <t>coins_better</t>
-  </si>
-  <si>
-    <t>score_better</t>
-  </si>
-  <si>
-    <t>baby_0</t>
   </si>
   <si>
     <t>baby_1</t>
@@ -268,6 +259,30 @@
       </rPr>
       <t xml:space="preserve"> firsts Flying pigs killed (with a Baby D. equipped) player doesn't get an 'extra' Gem, we will set prob. to 100% next time player kills a Flying pig, after that, prob. will be what was before. We need this value to 'show' player it is true they can get extra Gems and encourage them to get more Baby D.</t>
     </r>
+  </si>
+  <si>
+    <t>baby_classic</t>
+  </si>
+  <si>
+    <t>TID_BABY_DRAGON_UNLOCK</t>
+  </si>
+  <si>
+    <t>PF_BabyClassic</t>
+  </si>
+  <si>
+    <t>PF_BabyClassicMenu</t>
+  </si>
+  <si>
+    <t>dragon_classic</t>
+  </si>
+  <si>
+    <t>TID_BABY_CLASSIC_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_CLASSIC_DESC</t>
+  </si>
+  <si>
+    <t>hp</t>
   </si>
 </sst>
 </file>
@@ -679,6 +694,31 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -694,19 +734,20 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -729,23 +770,22 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -754,6 +794,36 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -894,6 +964,84 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1428,42 +1576,42 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1497,139 +1645,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1646,48 +1661,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="petDefinitions2" displayName="petDefinitions2" ref="B4:V7" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="petDefinitions2" displayName="petDefinitions2" ref="B4:V7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="B4:V7"/>
   <sortState ref="B5:T77">
     <sortCondition ref="D4:D77"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="{babyDragonDefinitions}" dataDxfId="23"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="22"/>
-    <tableColumn id="3" name="[rarity]" dataDxfId="21"/>
-    <tableColumn id="6" name="[category]" dataDxfId="20"/>
-    <tableColumn id="7" name="[order]" dataDxfId="19"/>
-    <tableColumn id="13" name="[startingPool]" dataDxfId="18"/>
-    <tableColumn id="14" name="[loadingTeasing]" dataDxfId="17"/>
-    <tableColumn id="16" name="[hidden]" dataDxfId="16"/>
-    <tableColumn id="15" name="[notInGatcha]" dataDxfId="15"/>
-    <tableColumn id="18" name="[associatedSeason]" dataDxfId="14"/>
-    <tableColumn id="19" name="[tidUnlockCondition]" dataDxfId="13"/>
-    <tableColumn id="8" name="[gamePrefab]" dataDxfId="12"/>
-    <tableColumn id="9" name="[menuPrefab]" dataDxfId="11"/>
-    <tableColumn id="11" name="[icon]" dataDxfId="10"/>
-    <tableColumn id="4" name="[powerup]" dataDxfId="9"/>
-    <tableColumn id="20" name="[statPower]" dataDxfId="4"/>
-    <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="3"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="8"/>
-    <tableColumn id="10" name="[tidDesc]" dataDxfId="7"/>
-    <tableColumn id="12" name="id" dataDxfId="6"/>
-    <tableColumn id="17" name="[trackingName]" dataDxfId="5"/>
+    <tableColumn id="1" name="{babyDragonDefinitions}" dataDxfId="29"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="28"/>
+    <tableColumn id="3" name="[rarity]" dataDxfId="27"/>
+    <tableColumn id="6" name="[category]" dataDxfId="26"/>
+    <tableColumn id="7" name="[order]" dataDxfId="25"/>
+    <tableColumn id="13" name="[startingPool]" dataDxfId="24"/>
+    <tableColumn id="14" name="[loadingTeasing]" dataDxfId="23"/>
+    <tableColumn id="16" name="[hidden]" dataDxfId="22"/>
+    <tableColumn id="15" name="[notInGatcha]" dataDxfId="21"/>
+    <tableColumn id="18" name="[associatedSeason]" dataDxfId="20"/>
+    <tableColumn id="19" name="[tidUnlockCondition]" dataDxfId="19"/>
+    <tableColumn id="8" name="[gamePrefab]" dataDxfId="18"/>
+    <tableColumn id="9" name="[menuPrefab]" dataDxfId="17"/>
+    <tableColumn id="11" name="[icon]" dataDxfId="16"/>
+    <tableColumn id="4" name="[powerup]" dataDxfId="15"/>
+    <tableColumn id="20" name="[statPower]" dataDxfId="14"/>
+    <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="13"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="12"/>
+    <tableColumn id="10" name="[tidDesc]" dataDxfId="11"/>
+    <tableColumn id="12" name="id" dataDxfId="10"/>
+    <tableColumn id="17" name="[trackingName]" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B12:G13" totalsRowShown="0" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B12:G13" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B12:G13"/>
   <sortState ref="B95:F101">
     <sortCondition ref="D77:D84"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="31"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="30"/>
-    <tableColumn id="3" name="[baseProbability]" dataDxfId="29"/>
+    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="5"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="4"/>
+    <tableColumn id="3" name="[baseProbability]" dataDxfId="3"/>
     <tableColumn id="4" name="[extraProbability]" dataDxfId="2"/>
     <tableColumn id="5" name="[extraGems]" dataDxfId="1"/>
     <tableColumn id="6" name="[firstSucceed]" dataDxfId="0"/>
@@ -1964,37 +1979,37 @@
   </sheetPr>
   <dimension ref="B1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="31.42578125" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="31.453125" customWidth="1"/>
+    <col min="13" max="13" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="29.81640625" customWidth="1"/>
     <col min="19" max="19" width="23" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:22" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2009,20 +2024,20 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="23"/>
       <c r="P3" s="26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" ht="119" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -2031,34 +2046,34 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>1</v>
@@ -2067,10 +2082,10 @@
         <v>7</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>4</v>
@@ -2082,24 +2097,24 @@
         <v>3</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" s="18" t="b">
         <v>0</v>
@@ -2114,34 +2129,52 @@
         <v>0</v>
       </c>
       <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="L5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="P5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="U5" s="11">
         <v>0</v>
       </c>
-      <c r="V5" s="18"/>
+      <c r="V5" s="18" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" s="18">
         <v>1</v>
@@ -2163,9 +2196,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="P6" s="15"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
       <c r="S6" s="11"/>
@@ -2175,18 +2206,18 @@
       </c>
       <c r="V6" s="18"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="18">
         <v>2</v>
@@ -2208,9 +2239,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="P7" s="15"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
       <c r="S7" s="11"/>
@@ -2220,10 +2249,10 @@
       </c>
       <c r="V7" s="18"/>
     </row>
-    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:22" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:22" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2238,36 +2267,36 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:22" ht="137.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="134" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -2282,29 +2311,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C19" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="28" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="28" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535"/>
   </bookViews>
   <sheets>
     <sheet name="BabyDragons" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>[sku]</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>hp</t>
+  </si>
+  <si>
+    <t>[sharedPower]</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,46 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1661,51 +1703,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="petDefinitions2" displayName="petDefinitions2" ref="B4:V7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
-  <autoFilter ref="B4:V7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="petDefinitions2" displayName="petDefinitions2" ref="B4:W7" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+  <autoFilter ref="B4:W7"/>
   <sortState ref="B5:T77">
     <sortCondition ref="D4:D77"/>
   </sortState>
-  <tableColumns count="21">
-    <tableColumn id="1" name="{babyDragonDefinitions}" dataDxfId="29"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="28"/>
-    <tableColumn id="3" name="[rarity]" dataDxfId="27"/>
-    <tableColumn id="6" name="[category]" dataDxfId="26"/>
-    <tableColumn id="7" name="[order]" dataDxfId="25"/>
-    <tableColumn id="13" name="[startingPool]" dataDxfId="24"/>
-    <tableColumn id="14" name="[loadingTeasing]" dataDxfId="23"/>
-    <tableColumn id="16" name="[hidden]" dataDxfId="22"/>
-    <tableColumn id="15" name="[notInGatcha]" dataDxfId="21"/>
-    <tableColumn id="18" name="[associatedSeason]" dataDxfId="20"/>
-    <tableColumn id="19" name="[tidUnlockCondition]" dataDxfId="19"/>
-    <tableColumn id="8" name="[gamePrefab]" dataDxfId="18"/>
-    <tableColumn id="9" name="[menuPrefab]" dataDxfId="17"/>
-    <tableColumn id="11" name="[icon]" dataDxfId="16"/>
-    <tableColumn id="4" name="[powerup]" dataDxfId="15"/>
-    <tableColumn id="20" name="[statPower]" dataDxfId="14"/>
-    <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="13"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="12"/>
-    <tableColumn id="10" name="[tidDesc]" dataDxfId="11"/>
-    <tableColumn id="12" name="id" dataDxfId="10"/>
-    <tableColumn id="17" name="[trackingName]" dataDxfId="9"/>
+  <tableColumns count="22">
+    <tableColumn id="1" name="{babyDragonDefinitions}" dataDxfId="30"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="29"/>
+    <tableColumn id="3" name="[rarity]" dataDxfId="28"/>
+    <tableColumn id="6" name="[category]" dataDxfId="27"/>
+    <tableColumn id="7" name="[order]" dataDxfId="26"/>
+    <tableColumn id="13" name="[startingPool]" dataDxfId="25"/>
+    <tableColumn id="14" name="[loadingTeasing]" dataDxfId="24"/>
+    <tableColumn id="16" name="[hidden]" dataDxfId="23"/>
+    <tableColumn id="15" name="[notInGatcha]" dataDxfId="22"/>
+    <tableColumn id="18" name="[associatedSeason]" dataDxfId="21"/>
+    <tableColumn id="19" name="[tidUnlockCondition]" dataDxfId="20"/>
+    <tableColumn id="8" name="[gamePrefab]" dataDxfId="19"/>
+    <tableColumn id="9" name="[menuPrefab]" dataDxfId="18"/>
+    <tableColumn id="11" name="[icon]" dataDxfId="17"/>
+    <tableColumn id="4" name="[powerup]" dataDxfId="16"/>
+    <tableColumn id="20" name="[statPower]" dataDxfId="15"/>
+    <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="14"/>
+    <tableColumn id="22" name="[sharedPower]" dataDxfId="0"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="13"/>
+    <tableColumn id="10" name="[tidDesc]" dataDxfId="12"/>
+    <tableColumn id="12" name="id" dataDxfId="11"/>
+    <tableColumn id="17" name="[trackingName]" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B12:G13" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B12:G13" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B12:G13"/>
   <sortState ref="B95:F101">
     <sortCondition ref="D77:D84"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="5"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="4"/>
-    <tableColumn id="3" name="[baseProbability]" dataDxfId="3"/>
-    <tableColumn id="4" name="[extraProbability]" dataDxfId="2"/>
-    <tableColumn id="5" name="[extraGems]" dataDxfId="1"/>
-    <tableColumn id="6" name="[firstSucceed]" dataDxfId="0"/>
+    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="6"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="5"/>
+    <tableColumn id="3" name="[baseProbability]" dataDxfId="4"/>
+    <tableColumn id="4" name="[extraProbability]" dataDxfId="3"/>
+    <tableColumn id="5" name="[extraGems]" dataDxfId="2"/>
+    <tableColumn id="6" name="[firstSucceed]" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1977,37 +2020,37 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:V22"/>
+  <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-    <col min="8" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="31.453125" customWidth="1"/>
-    <col min="13" max="13" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="29.81640625" customWidth="1"/>
-    <col min="19" max="19" width="23" customWidth="1"/>
-    <col min="20" max="20" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="29.85546875" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:22" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2024,7 +2067,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="23"/>
@@ -2035,7 +2078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="119" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="121.5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
@@ -2087,20 +2130,23 @@
       <c r="R4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
@@ -2150,20 +2196,23 @@
       <c r="R5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="U5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="U5" s="11">
+      <c r="V5" s="11">
         <v>0</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="W5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
@@ -2199,14 +2248,17 @@
       <c r="P6" s="15"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
-      <c r="S6" s="11"/>
+      <c r="S6" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="T6" s="11"/>
-      <c r="U6" s="16">
+      <c r="U6" s="11"/>
+      <c r="V6" s="16">
         <v>1</v>
       </c>
-      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
@@ -2242,15 +2294,18 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="11">
+      <c r="S7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="11">
         <v>2</v>
       </c>
-      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
     </row>
-    <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:22" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
@@ -2267,11 +2322,11 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:22" ht="134" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" ht="137.25" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
@@ -2291,7 +2346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>2</v>
       </c>
@@ -2311,27 +2366,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="28" t="s">
         <v>40</v>
       </c>

--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="BabyDragons" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>[sku]</t>
   </si>
@@ -84,12 +84,6 @@
   </si>
   <si>
     <t>coins_better</t>
-  </si>
-  <si>
-    <t>baby_1</t>
-  </si>
-  <si>
-    <t>baby_2</t>
   </si>
   <si>
     <t>baby</t>
@@ -282,10 +276,49 @@
     <t>TID_BABY_CLASSIC_DESC</t>
   </si>
   <si>
-    <t>hp</t>
-  </si>
-  <si>
     <t>[sharedPower]</t>
+  </si>
+  <si>
+    <t>baby_crocodile</t>
+  </si>
+  <si>
+    <t>baby_titan</t>
+  </si>
+  <si>
+    <t>PF_BabyCrocodile</t>
+  </si>
+  <si>
+    <t>PF_BabyTitan</t>
+  </si>
+  <si>
+    <t>PF_BabyCrocodileMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyTitanMenu</t>
+  </si>
+  <si>
+    <t>dragon_crocodile</t>
+  </si>
+  <si>
+    <t>dragon_titan</t>
+  </si>
+  <si>
+    <t>TID_BABY_CROCODILE_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_TITAN_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_TITAN_DESC</t>
+  </si>
+  <si>
+    <t>baby_fury_duration</t>
+  </si>
+  <si>
+    <t>baby_lower_damage_dragon</t>
+  </si>
+  <si>
+    <t>baby_prey_hp_boost_humans</t>
   </si>
 </sst>
 </file>
@@ -646,45 +679,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1006,6 +1000,45 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1726,29 +1759,29 @@
     <tableColumn id="4" name="[powerup]" dataDxfId="16"/>
     <tableColumn id="20" name="[statPower]" dataDxfId="15"/>
     <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="14"/>
-    <tableColumn id="22" name="[sharedPower]" dataDxfId="0"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="13"/>
-    <tableColumn id="10" name="[tidDesc]" dataDxfId="12"/>
-    <tableColumn id="12" name="id" dataDxfId="11"/>
-    <tableColumn id="17" name="[trackingName]" dataDxfId="10"/>
+    <tableColumn id="22" name="[sharedPower]" dataDxfId="13"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="12"/>
+    <tableColumn id="10" name="[tidDesc]" dataDxfId="11"/>
+    <tableColumn id="12" name="id" dataDxfId="10"/>
+    <tableColumn id="17" name="[trackingName]" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B12:G13" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B12:G13" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B12:G13"/>
   <sortState ref="B95:F101">
     <sortCondition ref="D77:D84"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="6"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="5"/>
-    <tableColumn id="3" name="[baseProbability]" dataDxfId="4"/>
-    <tableColumn id="4" name="[extraProbability]" dataDxfId="3"/>
-    <tableColumn id="5" name="[extraGems]" dataDxfId="2"/>
-    <tableColumn id="6" name="[firstSucceed]" dataDxfId="1"/>
+    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="5"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="4"/>
+    <tableColumn id="3" name="[baseProbability]" dataDxfId="3"/>
+    <tableColumn id="4" name="[extraProbability]" dataDxfId="2"/>
+    <tableColumn id="5" name="[extraGems]" dataDxfId="1"/>
+    <tableColumn id="6" name="[firstSucceed]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2022,37 +2055,37 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="31.42578125" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="31.453125" customWidth="1"/>
+    <col min="13" max="13" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="29.81640625" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2067,20 +2100,20 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="23"/>
       <c r="P3" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="119" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -2125,13 +2158,13 @@
         <v>7</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>4</v>
@@ -2146,21 +2179,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5" s="18" t="b">
         <v>0</v>
@@ -2176,57 +2209,57 @@
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="O5" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="R5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="V5" s="11">
         <v>0</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="18" t="b">
         <v>1</v>
@@ -2241,38 +2274,58 @@
         <v>0</v>
       </c>
       <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="L6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>53</v>
+      </c>
       <c r="S6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="V6" s="16">
         <v>1</v>
       </c>
-      <c r="W6" s="18"/>
+      <c r="W6" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="18" t="b">
         <v>1</v>
@@ -2287,27 +2340,47 @@
         <v>0</v>
       </c>
       <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="L7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="S7" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="V7" s="11">
         <v>2</v>
       </c>
-      <c r="W7" s="18"/>
+      <c r="W7" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2322,36 +2395,36 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:23" ht="137.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="134" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -2366,29 +2439,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C19" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="28" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="28" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="28" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535"/>
   </bookViews>
   <sheets>
     <sheet name="BabyDragons" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t>[sku]</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>[tidUnlockCondition]</t>
-  </si>
-  <si>
-    <t>coins_better</t>
   </si>
   <si>
     <t>baby</t>
@@ -319,6 +316,15 @@
   </si>
   <si>
     <t>baby_prey_hp_boost_humans</t>
+  </si>
+  <si>
+    <t>baby_transform_food</t>
+  </si>
+  <si>
+    <t>baby_phoenix_better</t>
+  </si>
+  <si>
+    <t>baby_kill_humanoid_burp</t>
   </si>
 </sst>
 </file>
@@ -2055,37 +2061,37 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-    <col min="8" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="31.453125" customWidth="1"/>
-    <col min="13" max="13" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="29.85546875" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2100,20 +2106,20 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="23"/>
       <c r="P3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="2:23" ht="119" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" ht="121.5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -2158,13 +2164,13 @@
         <v>7</v>
       </c>
       <c r="Q4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="24" t="s">
-        <v>22</v>
-      </c>
       <c r="S4" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>4</v>
@@ -2179,18 +2185,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="18">
         <v>1</v>
@@ -2209,54 +2215,54 @@
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="25" t="s">
+      <c r="S5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="11" t="s">
+      <c r="U5" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="V5" s="11">
         <v>0</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="18">
         <v>2</v>
@@ -2275,54 +2281,54 @@
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V6" s="16">
         <v>1</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="18">
         <v>3</v>
@@ -2341,46 +2347,46 @@
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="V7" s="11">
         <v>2</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2395,36 +2401,36 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:23" ht="134" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" ht="137.25" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="13">
         <v>10</v>
@@ -2439,29 +2445,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="28" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C21" s="28" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="28" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C22" s="28" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t>[sku]</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>&lt;Definition&gt;</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>[tidName]</t>
@@ -326,12 +323,174 @@
   <si>
     <t>baby_kill_humanoid_burp</t>
   </si>
+  <si>
+    <t>baby_jawfrey</t>
+  </si>
+  <si>
+    <t>baby_dark</t>
+  </si>
+  <si>
+    <t>baby_dino</t>
+  </si>
+  <si>
+    <t>baby_alien</t>
+  </si>
+  <si>
+    <t>baby_devil</t>
+  </si>
+  <si>
+    <t>baby_tony</t>
+  </si>
+  <si>
+    <t>baby_hedgehog</t>
+  </si>
+  <si>
+    <t>PF_BabyJawfrey</t>
+  </si>
+  <si>
+    <t>PF_BabyDark</t>
+  </si>
+  <si>
+    <t>PF_BabyDino</t>
+  </si>
+  <si>
+    <t>PF_BabyAlien</t>
+  </si>
+  <si>
+    <t>PF_BabyDevil</t>
+  </si>
+  <si>
+    <t>PF_BabyTony</t>
+  </si>
+  <si>
+    <t>PF_BabyHedgehog</t>
+  </si>
+  <si>
+    <t>PF_BabyJawfreyMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyDarkMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyDinoMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyAlienMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyDevilMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyTonyMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyHedgehogMenu</t>
+  </si>
+  <si>
+    <t>dragon_jawfrey</t>
+  </si>
+  <si>
+    <t>dragon_dark</t>
+  </si>
+  <si>
+    <t>dragon_dino</t>
+  </si>
+  <si>
+    <t>dragon_alien</t>
+  </si>
+  <si>
+    <t>dragon_devil</t>
+  </si>
+  <si>
+    <t>dragon_tony</t>
+  </si>
+  <si>
+    <t>dragon_hedgehog</t>
+  </si>
+  <si>
+    <t>TID_BABY_JAWFREY_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_DARK_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_DINO_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_ALIEN_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_DEVIL_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_TONY_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_HEDEGEHOG_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_JAWFREY_DESC</t>
+  </si>
+  <si>
+    <t>TID_BABY_DARK_DESC</t>
+  </si>
+  <si>
+    <t>TID_BABY_DINO_DESC</t>
+  </si>
+  <si>
+    <t>TID_BABY_ALIEN_DESC</t>
+  </si>
+  <si>
+    <t>TID_BABY_DEVIL_DESC</t>
+  </si>
+  <si>
+    <t>TID_BABY_TONY_DESC</t>
+  </si>
+  <si>
+    <t>baby_speed</t>
+  </si>
+  <si>
+    <t>baby_magnet</t>
+  </si>
+  <si>
+    <t>baby_prey_hp_boost_dragon</t>
+  </si>
+  <si>
+    <t>baby_unlimited_boost</t>
+  </si>
+  <si>
+    <t>baby_food</t>
+  </si>
+  <si>
+    <t>baby_stun</t>
+  </si>
+  <si>
+    <t>baby_fireball</t>
+  </si>
+  <si>
+    <t>baby_more_xp</t>
+  </si>
+  <si>
+    <t>baby_sun</t>
+  </si>
+  <si>
+    <t>baby_boost</t>
+  </si>
+  <si>
+    <t>baby_drop_present</t>
+  </si>
+  <si>
+    <t>baby_score_better</t>
+  </si>
+  <si>
+    <t>baby_shoot_spikes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +540,12 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -584,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -664,11 +829,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="35">
     <dxf>
       <font>
         <b val="0"/>
@@ -902,40 +1124,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1742,33 +1930,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="petDefinitions2" displayName="petDefinitions2" ref="B4:W7" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
-  <autoFilter ref="B4:W7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="petDefinitions2" displayName="petDefinitions2" ref="B4:V14" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="B4:V14"/>
   <sortState ref="B5:T77">
     <sortCondition ref="D4:D77"/>
   </sortState>
-  <tableColumns count="22">
-    <tableColumn id="1" name="{babyDragonDefinitions}" dataDxfId="30"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="29"/>
-    <tableColumn id="3" name="[rarity]" dataDxfId="28"/>
-    <tableColumn id="6" name="[category]" dataDxfId="27"/>
-    <tableColumn id="7" name="[order]" dataDxfId="26"/>
-    <tableColumn id="13" name="[startingPool]" dataDxfId="25"/>
-    <tableColumn id="14" name="[loadingTeasing]" dataDxfId="24"/>
-    <tableColumn id="16" name="[hidden]" dataDxfId="23"/>
-    <tableColumn id="15" name="[notInGatcha]" dataDxfId="22"/>
-    <tableColumn id="18" name="[associatedSeason]" dataDxfId="21"/>
-    <tableColumn id="19" name="[tidUnlockCondition]" dataDxfId="20"/>
-    <tableColumn id="8" name="[gamePrefab]" dataDxfId="19"/>
-    <tableColumn id="9" name="[menuPrefab]" dataDxfId="18"/>
-    <tableColumn id="11" name="[icon]" dataDxfId="17"/>
-    <tableColumn id="4" name="[powerup]" dataDxfId="16"/>
-    <tableColumn id="20" name="[statPower]" dataDxfId="15"/>
-    <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="14"/>
-    <tableColumn id="22" name="[sharedPower]" dataDxfId="13"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="12"/>
-    <tableColumn id="10" name="[tidDesc]" dataDxfId="11"/>
-    <tableColumn id="12" name="id" dataDxfId="10"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="{babyDragonDefinitions}" dataDxfId="29"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="28"/>
+    <tableColumn id="3" name="[rarity]" dataDxfId="27"/>
+    <tableColumn id="6" name="[category]" dataDxfId="26"/>
+    <tableColumn id="7" name="[order]" dataDxfId="25"/>
+    <tableColumn id="13" name="[startingPool]" dataDxfId="24"/>
+    <tableColumn id="14" name="[loadingTeasing]" dataDxfId="23"/>
+    <tableColumn id="16" name="[hidden]" dataDxfId="22"/>
+    <tableColumn id="15" name="[notInGatcha]" dataDxfId="21"/>
+    <tableColumn id="18" name="[associatedSeason]" dataDxfId="20"/>
+    <tableColumn id="19" name="[tidUnlockCondition]" dataDxfId="19"/>
+    <tableColumn id="8" name="[gamePrefab]" dataDxfId="18"/>
+    <tableColumn id="9" name="[menuPrefab]" dataDxfId="17"/>
+    <tableColumn id="11" name="[icon]" dataDxfId="16"/>
+    <tableColumn id="4" name="[powerup]" dataDxfId="15"/>
+    <tableColumn id="20" name="[statPower]" dataDxfId="14"/>
+    <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="13"/>
+    <tableColumn id="22" name="[sharedPower]" dataDxfId="12"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="11"/>
+    <tableColumn id="10" name="[tidDesc]" dataDxfId="10"/>
     <tableColumn id="17" name="[trackingName]" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1776,8 +1963,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B12:G13" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="B12:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B19:G20" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="B19:G20"/>
   <sortState ref="B95:F101">
     <sortCondition ref="D77:D84"/>
   </sortState>
@@ -2059,17 +2246,17 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:W22"/>
+  <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -2084,14 +2271,13 @@
     <col min="17" max="19" width="29.85546875" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
     <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2106,100 +2292,97 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="23"/>
       <c r="P3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="26" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="2:23" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" ht="121.5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="P4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>17</v>
+      <c r="V4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="18" t="b">
         <v>0</v>
@@ -2215,60 +2398,57 @@
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="25" t="s">
+      <c r="S5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="11" t="s">
+      <c r="U5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0</v>
-      </c>
-      <c r="W5" s="18" t="s">
-        <v>38</v>
+      <c r="V5" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="18" t="b">
         <v>0</v>
@@ -2281,60 +2461,57 @@
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="16">
-        <v>1</v>
-      </c>
-      <c r="W6" s="18" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="18" t="b">
         <v>0</v>
@@ -2347,132 +2524,570 @@
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="S7" s="25" t="s">
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="18">
+        <v>3</v>
+      </c>
+      <c r="G8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="V8" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="18">
+        <v>4</v>
+      </c>
+      <c r="G9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="18">
+        <v>5</v>
+      </c>
+      <c r="G10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="V10" s="45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="18">
+        <v>6</v>
+      </c>
+      <c r="G11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="U11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="V11" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="18">
+        <v>7</v>
+      </c>
+      <c r="G12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="18">
+        <v>8</v>
+      </c>
+      <c r="G13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V13" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="18">
+        <v>9</v>
+      </c>
+      <c r="G14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" ht="137.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="13">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2</v>
+      </c>
+      <c r="F20" s="27">
+        <v>1</v>
+      </c>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="V7" s="11">
-        <v>2</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="12" spans="2:23" ht="137.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>33</v>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2</v>
-      </c>
-      <c r="F13" s="27">
-        <v>1</v>
-      </c>
-      <c r="G13" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="28" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="28" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="28" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E5:L7"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E5:L14"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="BabyDragons" sheetId="7" r:id="rId1"/>
@@ -2248,34 +2248,34 @@
   </sheetPr>
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="31.42578125" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="31.453125" customWidth="1"/>
+    <col min="13" max="13" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="29.81640625" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:22" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="23"/>
@@ -2303,7 +2303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" ht="119" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>2</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B9" s="29" t="s">
         <v>2</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B10" s="40" t="s">
         <v>2</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B11" s="29" t="s">
         <v>2</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
         <v>2</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>2</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
         <v>2</v>
       </c>
@@ -2998,8 +2998,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -3016,11 +3016,11 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:14" ht="137.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="134" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="12" t="s">
         <v>2</v>
       </c>
@@ -3060,27 +3060,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C26" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C27" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C28" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C29" s="28" t="s">
         <v>36</v>
       </c>

--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535"/>
   </bookViews>
   <sheets>
     <sheet name="BabyDragons" sheetId="7" r:id="rId1"/>
@@ -126,6 +126,305 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Extra probability(EP): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Each extra Baby D. player gets will add a percentage. Initially set to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of extra gems: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">How many Gems player gets if succeed from a Flying Pig. (This value is going to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but I would like to have it in content just in case in the future we use this power for something else)</t>
+    </r>
+  </si>
+  <si>
+    <t>baby_classic</t>
+  </si>
+  <si>
+    <t>TID_BABY_DRAGON_UNLOCK</t>
+  </si>
+  <si>
+    <t>PF_BabyClassic</t>
+  </si>
+  <si>
+    <t>PF_BabyClassicMenu</t>
+  </si>
+  <si>
+    <t>dragon_classic</t>
+  </si>
+  <si>
+    <t>TID_BABY_CLASSIC_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_CLASSIC_DESC</t>
+  </si>
+  <si>
+    <t>[sharedPower]</t>
+  </si>
+  <si>
+    <t>baby_crocodile</t>
+  </si>
+  <si>
+    <t>baby_titan</t>
+  </si>
+  <si>
+    <t>PF_BabyCrocodile</t>
+  </si>
+  <si>
+    <t>PF_BabyTitan</t>
+  </si>
+  <si>
+    <t>PF_BabyCrocodileMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyTitanMenu</t>
+  </si>
+  <si>
+    <t>dragon_crocodile</t>
+  </si>
+  <si>
+    <t>dragon_titan</t>
+  </si>
+  <si>
+    <t>TID_BABY_CROCODILE_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_TITAN_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_TITAN_DESC</t>
+  </si>
+  <si>
+    <t>baby_fury_duration</t>
+  </si>
+  <si>
+    <t>baby_lower_damage_dragon</t>
+  </si>
+  <si>
+    <t>baby_prey_hp_boost_humans</t>
+  </si>
+  <si>
+    <t>baby_transform_food</t>
+  </si>
+  <si>
+    <t>baby_phoenix_better</t>
+  </si>
+  <si>
+    <t>baby_kill_humanoid_burp</t>
+  </si>
+  <si>
+    <t>baby_jawfrey</t>
+  </si>
+  <si>
+    <t>baby_dark</t>
+  </si>
+  <si>
+    <t>baby_dino</t>
+  </si>
+  <si>
+    <t>baby_alien</t>
+  </si>
+  <si>
+    <t>baby_devil</t>
+  </si>
+  <si>
+    <t>baby_tony</t>
+  </si>
+  <si>
+    <t>baby_hedgehog</t>
+  </si>
+  <si>
+    <t>PF_BabyJawfrey</t>
+  </si>
+  <si>
+    <t>PF_BabyDark</t>
+  </si>
+  <si>
+    <t>PF_BabyDino</t>
+  </si>
+  <si>
+    <t>PF_BabyAlien</t>
+  </si>
+  <si>
+    <t>PF_BabyDevil</t>
+  </si>
+  <si>
+    <t>PF_BabyTony</t>
+  </si>
+  <si>
+    <t>PF_BabyHedgehog</t>
+  </si>
+  <si>
+    <t>PF_BabyJawfreyMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyDarkMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyDinoMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyAlienMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyDevilMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyTonyMenu</t>
+  </si>
+  <si>
+    <t>PF_BabyHedgehogMenu</t>
+  </si>
+  <si>
+    <t>dragon_jawfrey</t>
+  </si>
+  <si>
+    <t>dragon_dark</t>
+  </si>
+  <si>
+    <t>dragon_dino</t>
+  </si>
+  <si>
+    <t>dragon_alien</t>
+  </si>
+  <si>
+    <t>dragon_devil</t>
+  </si>
+  <si>
+    <t>dragon_tony</t>
+  </si>
+  <si>
+    <t>dragon_hedgehog</t>
+  </si>
+  <si>
+    <t>TID_BABY_JAWFREY_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_DARK_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_DINO_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_ALIEN_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_DEVIL_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_TONY_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_HEDEGEHOG_NAME</t>
+  </si>
+  <si>
+    <t>TID_BABY_JAWFREY_DESC</t>
+  </si>
+  <si>
+    <t>TID_BABY_DARK_DESC</t>
+  </si>
+  <si>
+    <t>TID_BABY_DINO_DESC</t>
+  </si>
+  <si>
+    <t>TID_BABY_ALIEN_DESC</t>
+  </si>
+  <si>
+    <t>TID_BABY_DEVIL_DESC</t>
+  </si>
+  <si>
+    <t>TID_BABY_TONY_DESC</t>
+  </si>
+  <si>
+    <t>baby_speed</t>
+  </si>
+  <si>
+    <t>baby_magnet</t>
+  </si>
+  <si>
+    <t>baby_prey_hp_boost_dragon</t>
+  </si>
+  <si>
+    <t>baby_unlimited_boost</t>
+  </si>
+  <si>
+    <t>baby_food</t>
+  </si>
+  <si>
+    <t>baby_stun</t>
+  </si>
+  <si>
+    <t>baby_fireball</t>
+  </si>
+  <si>
+    <t>baby_more_xp</t>
+  </si>
+  <si>
+    <t>baby_sun</t>
+  </si>
+  <si>
+    <t>baby_boost</t>
+  </si>
+  <si>
+    <t>baby_drop_present</t>
+  </si>
+  <si>
+    <t>baby_score_better</t>
+  </si>
+  <si>
+    <t>baby_shoot_spikes</t>
+  </si>
+  <si>
+    <r>
       <t>Base probability(BP):</t>
     </r>
     <r>
@@ -147,69 +446,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Extra probability(EP): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Each extra Baby D. player gets will add a percentage. Initially set to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+2%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Number of extra gems: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">How many Gems player gets if succeed from a Flying Pig. (This value is going to be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>but I would like to have it in content just in case in the future we use this power for something else)</t>
+      <t>5%</t>
     </r>
   </si>
   <si>
@@ -235,7 +472,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -247,250 +484,13 @@
       </rPr>
       <t xml:space="preserve"> firsts Flying pigs killed (with a Baby D. equipped) player doesn't get an 'extra' Gem, we will set prob. to 100% next time player kills a Flying pig, after that, prob. will be what was before. We need this value to 'show' player it is true they can get extra Gems and encourage them to get more Baby D.</t>
     </r>
-  </si>
-  <si>
-    <t>baby_classic</t>
-  </si>
-  <si>
-    <t>TID_BABY_DRAGON_UNLOCK</t>
-  </si>
-  <si>
-    <t>PF_BabyClassic</t>
-  </si>
-  <si>
-    <t>PF_BabyClassicMenu</t>
-  </si>
-  <si>
-    <t>dragon_classic</t>
-  </si>
-  <si>
-    <t>TID_BABY_CLASSIC_NAME</t>
-  </si>
-  <si>
-    <t>TID_BABY_CLASSIC_DESC</t>
-  </si>
-  <si>
-    <t>[sharedPower]</t>
-  </si>
-  <si>
-    <t>baby_crocodile</t>
-  </si>
-  <si>
-    <t>baby_titan</t>
-  </si>
-  <si>
-    <t>PF_BabyCrocodile</t>
-  </si>
-  <si>
-    <t>PF_BabyTitan</t>
-  </si>
-  <si>
-    <t>PF_BabyCrocodileMenu</t>
-  </si>
-  <si>
-    <t>PF_BabyTitanMenu</t>
-  </si>
-  <si>
-    <t>dragon_crocodile</t>
-  </si>
-  <si>
-    <t>dragon_titan</t>
-  </si>
-  <si>
-    <t>TID_BABY_CROCODILE_NAME</t>
-  </si>
-  <si>
-    <t>TID_BABY_TITAN_NAME</t>
-  </si>
-  <si>
-    <t>TID_BABY_TITAN_DESC</t>
-  </si>
-  <si>
-    <t>baby_fury_duration</t>
-  </si>
-  <si>
-    <t>baby_lower_damage_dragon</t>
-  </si>
-  <si>
-    <t>baby_prey_hp_boost_humans</t>
-  </si>
-  <si>
-    <t>baby_transform_food</t>
-  </si>
-  <si>
-    <t>baby_phoenix_better</t>
-  </si>
-  <si>
-    <t>baby_kill_humanoid_burp</t>
-  </si>
-  <si>
-    <t>baby_jawfrey</t>
-  </si>
-  <si>
-    <t>baby_dark</t>
-  </si>
-  <si>
-    <t>baby_dino</t>
-  </si>
-  <si>
-    <t>baby_alien</t>
-  </si>
-  <si>
-    <t>baby_devil</t>
-  </si>
-  <si>
-    <t>baby_tony</t>
-  </si>
-  <si>
-    <t>baby_hedgehog</t>
-  </si>
-  <si>
-    <t>PF_BabyJawfrey</t>
-  </si>
-  <si>
-    <t>PF_BabyDark</t>
-  </si>
-  <si>
-    <t>PF_BabyDino</t>
-  </si>
-  <si>
-    <t>PF_BabyAlien</t>
-  </si>
-  <si>
-    <t>PF_BabyDevil</t>
-  </si>
-  <si>
-    <t>PF_BabyTony</t>
-  </si>
-  <si>
-    <t>PF_BabyHedgehog</t>
-  </si>
-  <si>
-    <t>PF_BabyJawfreyMenu</t>
-  </si>
-  <si>
-    <t>PF_BabyDarkMenu</t>
-  </si>
-  <si>
-    <t>PF_BabyDinoMenu</t>
-  </si>
-  <si>
-    <t>PF_BabyAlienMenu</t>
-  </si>
-  <si>
-    <t>PF_BabyDevilMenu</t>
-  </si>
-  <si>
-    <t>PF_BabyTonyMenu</t>
-  </si>
-  <si>
-    <t>PF_BabyHedgehogMenu</t>
-  </si>
-  <si>
-    <t>dragon_jawfrey</t>
-  </si>
-  <si>
-    <t>dragon_dark</t>
-  </si>
-  <si>
-    <t>dragon_dino</t>
-  </si>
-  <si>
-    <t>dragon_alien</t>
-  </si>
-  <si>
-    <t>dragon_devil</t>
-  </si>
-  <si>
-    <t>dragon_tony</t>
-  </si>
-  <si>
-    <t>dragon_hedgehog</t>
-  </si>
-  <si>
-    <t>TID_BABY_JAWFREY_NAME</t>
-  </si>
-  <si>
-    <t>TID_BABY_DARK_NAME</t>
-  </si>
-  <si>
-    <t>TID_BABY_DINO_NAME</t>
-  </si>
-  <si>
-    <t>TID_BABY_ALIEN_NAME</t>
-  </si>
-  <si>
-    <t>TID_BABY_DEVIL_NAME</t>
-  </si>
-  <si>
-    <t>TID_BABY_TONY_NAME</t>
-  </si>
-  <si>
-    <t>TID_BABY_HEDEGEHOG_NAME</t>
-  </si>
-  <si>
-    <t>TID_BABY_JAWFREY_DESC</t>
-  </si>
-  <si>
-    <t>TID_BABY_DARK_DESC</t>
-  </si>
-  <si>
-    <t>TID_BABY_DINO_DESC</t>
-  </si>
-  <si>
-    <t>TID_BABY_ALIEN_DESC</t>
-  </si>
-  <si>
-    <t>TID_BABY_DEVIL_DESC</t>
-  </si>
-  <si>
-    <t>TID_BABY_TONY_DESC</t>
-  </si>
-  <si>
-    <t>baby_speed</t>
-  </si>
-  <si>
-    <t>baby_magnet</t>
-  </si>
-  <si>
-    <t>baby_prey_hp_boost_dragon</t>
-  </si>
-  <si>
-    <t>baby_unlimited_boost</t>
-  </si>
-  <si>
-    <t>baby_food</t>
-  </si>
-  <si>
-    <t>baby_stun</t>
-  </si>
-  <si>
-    <t>baby_fireball</t>
-  </si>
-  <si>
-    <t>baby_more_xp</t>
-  </si>
-  <si>
-    <t>baby_sun</t>
-  </si>
-  <si>
-    <t>baby_boost</t>
-  </si>
-  <si>
-    <t>baby_drop_present</t>
-  </si>
-  <si>
-    <t>baby_score_better</t>
-  </si>
-  <si>
-    <t>baby_shoot_spikes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +546,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -749,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -794,9 +809,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,9 +868,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,9 +883,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,6 +890,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,6 +912,106 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
+    <dxf>
+      <font>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1087,112 +1208,6 @@
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1954,27 +1969,27 @@
     <tableColumn id="20" name="[statPower]" dataDxfId="14"/>
     <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="13"/>
     <tableColumn id="22" name="[sharedPower]" dataDxfId="12"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="11"/>
-    <tableColumn id="10" name="[tidDesc]" dataDxfId="10"/>
-    <tableColumn id="17" name="[trackingName]" dataDxfId="9"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="2"/>
+    <tableColumn id="10" name="[tidDesc]" dataDxfId="0"/>
+    <tableColumn id="17" name="[trackingName]" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B19:G20" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B19:G20" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="B19:G20"/>
   <sortState ref="B95:F101">
     <sortCondition ref="D77:D84"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="5"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="4"/>
-    <tableColumn id="3" name="[baseProbability]" dataDxfId="3"/>
-    <tableColumn id="4" name="[extraProbability]" dataDxfId="2"/>
-    <tableColumn id="5" name="[extraGems]" dataDxfId="1"/>
-    <tableColumn id="6" name="[firstSucceed]" dataDxfId="0"/>
+    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="8"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="7"/>
+    <tableColumn id="3" name="[baseProbability]" dataDxfId="6"/>
+    <tableColumn id="4" name="[extraProbability]" dataDxfId="5"/>
+    <tableColumn id="5" name="[extraGems]" dataDxfId="4"/>
+    <tableColumn id="6" name="[firstSucceed]" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2249,33 +2264,33 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-    <col min="8" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="31.453125" customWidth="1"/>
-    <col min="13" max="13" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="29.85546875" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:22" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2292,18 +2307,18 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="23"/>
-      <c r="P3" s="26" t="s">
+      <c r="D3" s="22"/>
+      <c r="P3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="119" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" ht="121.5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2349,657 +2364,657 @@
       <c r="P4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="24" t="s">
-        <v>44</v>
+      <c r="S4" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="N5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="15" t="s">
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="17">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="25" t="s">
+      <c r="D8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="17">
+        <v>3</v>
+      </c>
+      <c r="G8" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>37</v>
+      <c r="T8" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" s="37" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C9" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="18">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" s="25" t="s">
+      <c r="F9" s="17">
+        <v>4</v>
+      </c>
+      <c r="G9" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>45</v>
+      <c r="T9" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" s="37" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="C10" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F10" s="17">
+        <v>5</v>
+      </c>
+      <c r="G10" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="U10" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="25" t="s">
+      <c r="C11" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="17">
+        <v>6</v>
+      </c>
+      <c r="G11" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>46</v>
+      <c r="T11" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="U11" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="V11" s="37" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="C12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
-      <c r="G8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8" s="36" t="s">
+      <c r="F12" s="17">
+        <v>7</v>
+      </c>
+      <c r="G12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="U8" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="V8" s="39" t="s">
-        <v>62</v>
+      <c r="T12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="29" t="s">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="18">
-        <v>4</v>
-      </c>
-      <c r="G9" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" s="36" t="s">
+      <c r="F13" s="17">
+        <v>8</v>
+      </c>
+      <c r="G13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="U9" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="V9" s="39" t="s">
-        <v>63</v>
+      <c r="T13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="U13" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B10" s="40" t="s">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="C14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="18">
-        <v>5</v>
-      </c>
-      <c r="G10" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="R10" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="S10" s="42" t="s">
+      <c r="F14" s="17">
+        <v>9</v>
+      </c>
+      <c r="G14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="U10" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="V10" s="45" t="s">
-        <v>64</v>
+      <c r="T14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B11" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="18">
-        <v>6</v>
-      </c>
-      <c r="G11" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="U11" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="V11" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="18">
-        <v>7</v>
-      </c>
-      <c r="G12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="18">
-        <v>8</v>
-      </c>
-      <c r="G13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q13" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="S13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="V13" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="18">
-        <v>9</v>
-      </c>
-      <c r="G14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V14" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -3016,11 +3031,11 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:14" ht="134" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" ht="137.25" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -3040,49 +3055,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="14">
         <v>2</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>1</v>
       </c>
-      <c r="G20" s="27">
-        <v>3</v>
+      <c r="G20" s="26">
+        <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C26" s="28" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C27" s="28" t="s">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C28" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C29" s="28" t="s">
-        <v>36</v>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="27" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
   <si>
     <t>[sku]</t>
   </si>
@@ -484,6 +484,45 @@
       </rPr>
       <t xml:space="preserve"> firsts Flying pigs killed (with a Baby D. equipped) player doesn't get an 'extra' Gem, we will set prob. to 100% next time player kills a Flying pig, after that, prob. will be what was before. We need this value to 'show' player it is true they can get extra Gems and encourage them to get more Baby D.</t>
     </r>
+  </si>
+  <si>
+    <t>pet_baby_classic</t>
+  </si>
+  <si>
+    <t>pet_baby_crocodile</t>
+  </si>
+  <si>
+    <t>pet_baby_titan</t>
+  </si>
+  <si>
+    <t>pet_baby_jawfrey</t>
+  </si>
+  <si>
+    <t>pet_baby_dark</t>
+  </si>
+  <si>
+    <t>pet_baby_dino</t>
+  </si>
+  <si>
+    <t>pet_baby_alien</t>
+  </si>
+  <si>
+    <t>pet_baby_devil</t>
+  </si>
+  <si>
+    <t>pet_baby_tony</t>
+  </si>
+  <si>
+    <t>pet_baby_hedgehog</t>
+  </si>
+  <si>
+    <t>[tidDescription]</t>
+  </si>
+  <si>
+    <t>TID_SHARED_EXTRA_GEMS_NAME</t>
+  </si>
+  <si>
+    <t>TID_SHARED_EXTRA_GEMS_DESC</t>
   </si>
 </sst>
 </file>
@@ -911,7 +950,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <i val="0"/>
@@ -1945,51 +2064,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="petDefinitions2" displayName="petDefinitions2" ref="B4:V14" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="petDefinitions2" displayName="petDefinitions2" ref="B4:V14" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="B4:V14"/>
   <sortState ref="B5:T77">
     <sortCondition ref="D4:D77"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="{babyDragonDefinitions}" dataDxfId="29"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="28"/>
-    <tableColumn id="3" name="[rarity]" dataDxfId="27"/>
-    <tableColumn id="6" name="[category]" dataDxfId="26"/>
-    <tableColumn id="7" name="[order]" dataDxfId="25"/>
-    <tableColumn id="13" name="[startingPool]" dataDxfId="24"/>
-    <tableColumn id="14" name="[loadingTeasing]" dataDxfId="23"/>
-    <tableColumn id="16" name="[hidden]" dataDxfId="22"/>
-    <tableColumn id="15" name="[notInGatcha]" dataDxfId="21"/>
-    <tableColumn id="18" name="[associatedSeason]" dataDxfId="20"/>
-    <tableColumn id="19" name="[tidUnlockCondition]" dataDxfId="19"/>
-    <tableColumn id="8" name="[gamePrefab]" dataDxfId="18"/>
-    <tableColumn id="9" name="[menuPrefab]" dataDxfId="17"/>
-    <tableColumn id="11" name="[icon]" dataDxfId="16"/>
-    <tableColumn id="4" name="[powerup]" dataDxfId="15"/>
-    <tableColumn id="20" name="[statPower]" dataDxfId="14"/>
-    <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="13"/>
-    <tableColumn id="22" name="[sharedPower]" dataDxfId="12"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="2"/>
-    <tableColumn id="10" name="[tidDesc]" dataDxfId="0"/>
-    <tableColumn id="17" name="[trackingName]" dataDxfId="1"/>
+    <tableColumn id="1" name="{babyDragonDefinitions}" dataDxfId="31"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="30"/>
+    <tableColumn id="3" name="[rarity]" dataDxfId="29"/>
+    <tableColumn id="6" name="[category]" dataDxfId="28"/>
+    <tableColumn id="7" name="[order]" dataDxfId="27"/>
+    <tableColumn id="13" name="[startingPool]" dataDxfId="26"/>
+    <tableColumn id="14" name="[loadingTeasing]" dataDxfId="25"/>
+    <tableColumn id="16" name="[hidden]" dataDxfId="24"/>
+    <tableColumn id="15" name="[notInGatcha]" dataDxfId="23"/>
+    <tableColumn id="18" name="[associatedSeason]" dataDxfId="22"/>
+    <tableColumn id="19" name="[tidUnlockCondition]" dataDxfId="21"/>
+    <tableColumn id="8" name="[gamePrefab]" dataDxfId="20"/>
+    <tableColumn id="9" name="[menuPrefab]" dataDxfId="19"/>
+    <tableColumn id="11" name="[icon]" dataDxfId="18"/>
+    <tableColumn id="4" name="[powerup]" dataDxfId="17"/>
+    <tableColumn id="20" name="[statPower]" dataDxfId="16"/>
+    <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="15"/>
+    <tableColumn id="22" name="[sharedPower]" dataDxfId="14"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="4"/>
+    <tableColumn id="10" name="[tidDesc]" dataDxfId="2"/>
+    <tableColumn id="17" name="[trackingName]" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B19:G20" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="B19:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B19:I20" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="B19:I20"/>
   <sortState ref="B95:F101">
     <sortCondition ref="D77:D84"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="8"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="7"/>
-    <tableColumn id="3" name="[baseProbability]" dataDxfId="6"/>
-    <tableColumn id="4" name="[extraProbability]" dataDxfId="5"/>
-    <tableColumn id="5" name="[extraGems]" dataDxfId="4"/>
-    <tableColumn id="6" name="[firstSucceed]" dataDxfId="3"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="10"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="9"/>
+    <tableColumn id="3" name="[baseProbability]" dataDxfId="8"/>
+    <tableColumn id="4" name="[extraProbability]" dataDxfId="7"/>
+    <tableColumn id="5" name="[extraGems]" dataDxfId="6"/>
+    <tableColumn id="6" name="[firstSucceed]" dataDxfId="5"/>
+    <tableColumn id="7" name="[tidName]" dataDxfId="1"/>
+    <tableColumn id="8" name="[tidDescription]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2263,8 +2384,8 @@
   </sheetPr>
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,7 +2543,7 @@
         <v>38</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>58</v>
@@ -2485,7 +2606,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>57</v>
@@ -2548,7 +2669,7 @@
         <v>48</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>59</v>
@@ -2611,7 +2732,7 @@
         <v>74</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>104</v>
@@ -2674,7 +2795,7 @@
         <v>75</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="P9" s="15" t="s">
         <v>102</v>
@@ -2737,7 +2858,7 @@
         <v>76</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="P10" s="44" t="s">
         <v>106</v>
@@ -2800,7 +2921,7 @@
         <v>77</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>107</v>
@@ -2863,7 +2984,7 @@
         <v>78</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="P12" s="15" t="s">
         <v>109</v>
@@ -2926,7 +3047,7 @@
         <v>79</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>111</v>
@@ -2989,7 +3110,7 @@
         <v>80</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>113</v>
@@ -3054,6 +3175,12 @@
       <c r="G19" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="H19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
@@ -3073,6 +3200,12 @@
       </c>
       <c r="G20" s="26">
         <v>4</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">

--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubi\HungryDragon\HD_Client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123A3AE7-7614-4121-8BFF-5891A7942F3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BabyDragons" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="129">
   <si>
     <t>[sku]</t>
   </si>
@@ -516,19 +523,19 @@
     <t>pet_baby_hedgehog</t>
   </si>
   <si>
-    <t>[tidDescription]</t>
-  </si>
-  <si>
     <t>TID_SHARED_EXTRA_GEMS_NAME</t>
   </si>
   <si>
     <t>TID_SHARED_EXTRA_GEMS_DESC</t>
+  </si>
+  <si>
+    <t>icon_power_baby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -803,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -842,9 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,9 +878,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -945,12 +946,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
     <dxf>
       <font>
         <b val="0"/>
@@ -970,10 +974,60 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1013,7 +1067,107 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1029,6 +1183,142 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1067,34 +1357,6 @@
     </dxf>
     <dxf>
       <font>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1128,205 +1390,6 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
         </bottom>
       </border>
     </dxf>
@@ -2064,53 +2127,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="petDefinitions2" displayName="petDefinitions2" ref="B4:V14" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
-  <autoFilter ref="B4:V14"/>
-  <sortState ref="B5:T77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="petDefinitions2" displayName="petDefinitions2" ref="B4:V14" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="B4:V14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:T77">
     <sortCondition ref="D4:D77"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" name="{babyDragonDefinitions}" dataDxfId="31"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="30"/>
-    <tableColumn id="3" name="[rarity]" dataDxfId="29"/>
-    <tableColumn id="6" name="[category]" dataDxfId="28"/>
-    <tableColumn id="7" name="[order]" dataDxfId="27"/>
-    <tableColumn id="13" name="[startingPool]" dataDxfId="26"/>
-    <tableColumn id="14" name="[loadingTeasing]" dataDxfId="25"/>
-    <tableColumn id="16" name="[hidden]" dataDxfId="24"/>
-    <tableColumn id="15" name="[notInGatcha]" dataDxfId="23"/>
-    <tableColumn id="18" name="[associatedSeason]" dataDxfId="22"/>
-    <tableColumn id="19" name="[tidUnlockCondition]" dataDxfId="21"/>
-    <tableColumn id="8" name="[gamePrefab]" dataDxfId="20"/>
-    <tableColumn id="9" name="[menuPrefab]" dataDxfId="19"/>
-    <tableColumn id="11" name="[icon]" dataDxfId="18"/>
-    <tableColumn id="4" name="[powerup]" dataDxfId="17"/>
-    <tableColumn id="20" name="[statPower]" dataDxfId="16"/>
-    <tableColumn id="21" name="[motherDragonSKU]" dataDxfId="15"/>
-    <tableColumn id="22" name="[sharedPower]" dataDxfId="14"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="4"/>
-    <tableColumn id="10" name="[tidDesc]" dataDxfId="2"/>
-    <tableColumn id="17" name="[trackingName]" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{babyDragonDefinitions}" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[rarity]" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[category]" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[startingPool]" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[loadingTeasing]" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[hidden]" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[notInGatcha]" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[associatedSeason]" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[tidUnlockCondition]" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[gamePrefab]" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[menuPrefab]" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[icon]" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[powerup]" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[statPower]" dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[motherDragonSKU]" dataDxfId="16"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[sharedPower]" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[tidName]" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[tidDesc]" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[trackingName]" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B19:I20" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="B19:I20"/>
-  <sortState ref="B95:F101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B19:J20" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="B19:J20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B95:F101">
     <sortCondition ref="D77:D84"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="{sharedPowerupDefinitions}" dataDxfId="10"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="9"/>
-    <tableColumn id="3" name="[baseProbability]" dataDxfId="8"/>
-    <tableColumn id="4" name="[extraProbability]" dataDxfId="7"/>
-    <tableColumn id="5" name="[extraGems]" dataDxfId="6"/>
-    <tableColumn id="6" name="[firstSucceed]" dataDxfId="5"/>
-    <tableColumn id="7" name="[tidName]" dataDxfId="1"/>
-    <tableColumn id="8" name="[tidDescription]" dataDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="{sharedPowerupDefinitions}" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="[sku]" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[baseProbability]" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[extraProbability]" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="[extraGems]" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[firstSucceed]" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{6570B788-C4AD-4AFB-B1BB-102A681AF16D}" name="[icon]" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="[tidName]" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="[tidDesc]" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2378,13 +2442,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -2431,11 +2495,11 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="22"/>
-      <c r="P3" s="25" t="s">
+      <c r="D3" s="21"/>
+      <c r="P3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2485,19 +2549,19 @@
       <c r="P4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="22" t="s">
         <v>42</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="U4" s="43" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="4" t="s">
@@ -2505,35 +2569,35 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="17">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17" t="s">
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -2545,58 +2609,58 @@
       <c r="O5" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="23" t="s">
         <v>27</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="46" t="s">
+      <c r="U5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17" t="s">
+      <c r="G6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
         <v>36</v>
       </c>
       <c r="M6" s="8" t="s">
@@ -2608,58 +2672,58 @@
       <c r="O6" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="23" t="s">
         <v>27</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="46" t="s">
+      <c r="U6" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>2</v>
       </c>
-      <c r="G7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
+      <c r="G7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -2671,310 +2735,310 @@
       <c r="O7" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>3</v>
       </c>
-      <c r="G8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31" t="s">
+      <c r="G8" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T8" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="U8" s="48" t="s">
+      <c r="U8" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="V8" s="37" t="s">
+      <c r="V8" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>4</v>
       </c>
-      <c r="G9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31" t="s">
+      <c r="G9" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="S9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="U9" s="48" t="s">
+      <c r="U9" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="37" t="s">
+      <c r="V9" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>5</v>
       </c>
-      <c r="G10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30" t="s">
+      <c r="G10" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="33" t="s">
+      <c r="N10" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="Q10" s="43" t="s">
+      <c r="Q10" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="41" t="s">
+      <c r="T10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="U10" s="49" t="s">
+      <c r="U10" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="42" t="s">
+      <c r="V10" s="40" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>6</v>
       </c>
-      <c r="G11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31" t="s">
+      <c r="G11" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="Q11" s="35" t="s">
+      <c r="Q11" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="R11" s="35" t="s">
+      <c r="R11" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="S11" s="35" t="s">
+      <c r="S11" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="T11" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="U11" s="48" t="s">
+      <c r="U11" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="V11" s="37" t="s">
+      <c r="V11" s="35" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>7</v>
       </c>
-      <c r="G12" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17" t="s">
+      <c r="G12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="M12" s="8" t="s">
@@ -2986,58 +3050,58 @@
       <c r="O12" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="24" t="s">
+      <c r="Q12" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="R12" s="24" t="s">
+      <c r="R12" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="S12" s="24" t="s">
+      <c r="S12" s="23" t="s">
         <v>27</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="46" t="s">
+      <c r="U12" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>8</v>
       </c>
-      <c r="G13" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17" t="s">
+      <c r="G13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="8" t="s">
@@ -3049,58 +3113,58 @@
       <c r="O13" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="S13" s="24" t="s">
+      <c r="S13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="U13" s="46" t="s">
+      <c r="U13" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>9</v>
       </c>
-      <c r="G14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17" t="s">
+      <c r="G14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16" t="s">
         <v>36</v>
       </c>
       <c r="M14" s="8" t="s">
@@ -3112,25 +3176,25 @@
       <c r="O14" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="R14" s="24" t="s">
+      <c r="R14" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="23" t="s">
         <v>27</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="U14" s="47" t="s">
+      <c r="U14" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3166,46 +3230,52 @@
       <c r="D19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>126</v>
+      <c r="J19" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="13">
         <v>5</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>2</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="13">
         <v>1</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="13">
         <v>4</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="48" t="s">
         <v>127</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -3214,28 +3284,28 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E5:L14"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E5:L14" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubi\HungryDragon\HD_Client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123A3AE7-7614-4121-8BFF-5891A7942F3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A56ECD5-4B01-4987-ABCF-95622F4B03DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BabyDragons" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
   <si>
     <t>[sku]</t>
   </si>
@@ -529,7 +529,13 @@
     <t>TID_SHARED_EXTRA_GEMS_DESC</t>
   </si>
   <si>
-    <t>icon_power_baby</t>
+    <t>[type]</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>icon_power_baby_collection</t>
   </si>
 </sst>
 </file>
@@ -954,7 +960,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
@@ -969,6 +975,162 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1043,121 +1205,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2127,54 +2174,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="petDefinitions2" displayName="petDefinitions2" ref="B4:V14" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="petDefinitions2" displayName="petDefinitions2" ref="B4:V14" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="B4:V14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:T77">
     <sortCondition ref="D4:D77"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{babyDragonDefinitions}" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[rarity]" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[category]" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[startingPool]" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[loadingTeasing]" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[hidden]" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[notInGatcha]" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[associatedSeason]" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[tidUnlockCondition]" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[gamePrefab]" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[menuPrefab]" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[icon]" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[powerup]" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[statPower]" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[motherDragonSKU]" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[sharedPower]" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[tidName]" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[tidDesc]" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[trackingName]" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{babyDragonDefinitions}" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[rarity]" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[category]" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[startingPool]" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[loadingTeasing]" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[hidden]" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[notInGatcha]" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[associatedSeason]" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[tidUnlockCondition]" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[gamePrefab]" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[menuPrefab]" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[icon]" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[powerup]" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[statPower]" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[motherDragonSKU]" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[sharedPower]" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[tidName]" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[tidDesc]" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[trackingName]" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B19:J20" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="B19:J20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B95:F101">
-    <sortCondition ref="D77:D84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="petCategoryDefinitions3" displayName="petCategoryDefinitions3" ref="B19:K20" totalsRowShown="0" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B19:K20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B95:G101">
+    <sortCondition ref="E77:E84"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="{sharedPowerupDefinitions}" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="[sku]" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[baseProbability]" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[extraProbability]" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="[extraGems]" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[firstSucceed]" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{6570B788-C4AD-4AFB-B1BB-102A681AF16D}" name="[icon]" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="[tidName]" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="[tidDesc]" dataDxfId="3"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="{sharedPowerupDefinitions}" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="[sku]" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{EF0D6C29-320C-44D2-B2FA-653E99769602}" name="[type]" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[baseProbability]" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[extraProbability]" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="[extraGems]" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[firstSucceed]" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{6570B788-C4AD-4AFB-B1BB-102A681AF16D}" name="[icon]" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="[tidName]" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="[tidDesc]" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2449,7 +2497,7 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,25 +3275,28 @@
       <c r="C19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3256,25 +3307,28 @@
       <c r="C20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="13">
         <v>5</v>
       </c>
-      <c r="E20" s="13">
+      <c r="F20" s="13">
         <v>2</v>
       </c>
-      <c r="F20" s="13">
+      <c r="G20" s="13">
         <v>1</v>
       </c>
-      <c r="G20" s="13">
+      <c r="H20" s="13">
         <v>4</v>
       </c>
-      <c r="H20" s="48" t="s">
-        <v>128</v>
-      </c>
       <c r="I20" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="K20" s="48" t="s">
         <v>127</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_BabyDragons.xlsx
+++ b/Docs/Content/HungryDragonContent_BabyDragons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubi\HungryDragon\HD_Client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A56ECD5-4B01-4987-ABCF-95622F4B03DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0ADDAE-843C-47B5-A605-5A059861F465}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,9 +347,6 @@
     <t>dragon_devil</t>
   </si>
   <si>
-    <t>dragon_tony</t>
-  </si>
-  <si>
     <t>dragon_hedgehog</t>
   </si>
   <si>
@@ -536,6 +533,9 @@
   </si>
   <si>
     <t>icon_power_baby_collection</t>
+  </si>
+  <si>
+    <t>dragon_fat</t>
   </si>
 </sst>
 </file>
@@ -975,17 +975,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -998,8 +997,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1054,6 +1051,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1092,17 +1090,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1115,6 +1112,83 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1131,87 +1205,13 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2215,14 +2215,14 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="{sharedPowerupDefinitions}" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="[sku]" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{EF0D6C29-320C-44D2-B2FA-653E99769602}" name="[type]" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[baseProbability]" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[extraProbability]" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="[extraGems]" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[firstSucceed]" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{6570B788-C4AD-4AFB-B1BB-102A681AF16D}" name="[icon]" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="[tidName]" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="[tidDesc]" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{EF0D6C29-320C-44D2-B2FA-653E99769602}" name="[type]" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[baseProbability]" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[extraProbability]" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="[extraGems]" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[firstSucceed]" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{6570B788-C4AD-4AFB-B1BB-102A681AF16D}" name="[icon]" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="[tidName]" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="[tidDesc]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2496,8 +2496,8 @@
   </sheetPr>
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,7 +2655,7 @@
         <v>38</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>58</v>
@@ -2718,7 +2718,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>57</v>
@@ -2781,7 +2781,7 @@
         <v>48</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>59</v>
@@ -2844,13 +2844,13 @@
         <v>74</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R8" s="33" t="s">
         <v>81</v>
@@ -2859,10 +2859,10 @@
         <v>27</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U8" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V8" s="35" t="s">
         <v>60</v>
@@ -2907,13 +2907,13 @@
         <v>75</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="R9" s="33" t="s">
         <v>82</v>
@@ -2922,10 +2922,10 @@
         <v>27</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U9" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V9" s="35" t="s">
         <v>61</v>
@@ -2970,13 +2970,13 @@
         <v>76</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P10" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R10" s="38" t="s">
         <v>83</v>
@@ -2985,10 +2985,10 @@
         <v>27</v>
       </c>
       <c r="T10" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U10" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V10" s="40" t="s">
         <v>62</v>
@@ -3033,13 +3033,13 @@
         <v>77</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P11" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>108</v>
       </c>
       <c r="R11" s="33" t="s">
         <v>84</v>
@@ -3048,10 +3048,10 @@
         <v>27</v>
       </c>
       <c r="T11" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U11" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V11" s="35" t="s">
         <v>63</v>
@@ -3096,13 +3096,13 @@
         <v>78</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="R12" s="23" t="s">
         <v>85</v>
@@ -3111,10 +3111,10 @@
         <v>27</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U12" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V12" s="16" t="s">
         <v>64</v>
@@ -3159,25 +3159,25 @@
         <v>79</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U13" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V13" s="16" t="s">
         <v>65</v>
@@ -3222,25 +3222,25 @@
         <v>80</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S14" s="23" t="s">
         <v>27</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U14" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V14" s="16" t="s">
         <v>66</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>29</v>
@@ -3308,7 +3308,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="13">
         <v>5</v>
@@ -3323,13 +3323,13 @@
         <v>4</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J20" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="48" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -3354,7 +3354,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
